--- a/Template/Шаблон для загрузки логинов в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки логинов в DirectumRX.xlsx
@@ -1,54 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DirectumDev\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Логины" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Логины!$A$1:$G$1</definedName>
-  </definedNames>
-  <calcPr calcId="152511"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Логины" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Логины!$A$1:$G$1</x:definedName>
+  </x:definedNames>
+  <x:calcPr calcId="152511"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>Подробности</t>
-  </si>
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Отчество</t>
-  </si>
-  <si>
-    <t>Логин</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <x:si>
+    <x:t>Дата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Итог</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подробности</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Фамилия</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Имя</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отчество</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Логин</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Сидоров</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Валентин</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Степанович</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sidorov</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.01.2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Не удалось найти соответствующего сотрудника "Сидоров Валентин Степанович".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,50 +463,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:dimension ref="A1:G2"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A2" sqref="A2"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:7" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="A1" s="5" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B1" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E1" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G1" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="A2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:autoFilter ref="A1:G1"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</x:worksheet>
 </file>
--- a/Template/Шаблон для загрузки логинов в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки логинов в DirectumRX.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Логины" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Логины!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Логины!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Дата</t>
   </si>
@@ -43,12 +43,15 @@
   </si>
   <si>
     <t>Логин</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,24 +440,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -467,18 +469,21 @@
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
